--- a/config/excel/CrystalSpell.xlsx
+++ b/config/excel/CrystalSpell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -27,6 +27,9 @@
 4: 时
 5: 空
 6: 幻</t>
+  </si>
+  <si>
+    <t>此列由前6列自动生成，不用填写</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -80,11 +83,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -106,107 +109,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +129,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -228,7 +165,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,8 +187,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,8 +247,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,37 +285,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,150 +471,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -543,6 +557,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -571,31 +600,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,164 +641,179 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -811,7 +840,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2015,7 +2046,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2054,15 +2085,17 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" ht="16.8" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2071,43 +2104,43 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="16.8" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2121,10 +2154,10 @@
     <row r="6" ht="16.8" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2133,7 +2166,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="17" spans="1:10">
